--- a/hardware/arm/EFM32/variants/efm32tg110/doc/EFM32TG110F.xlsx
+++ b/hardware/arm/EFM32/variants/efm32tg110/doc/EFM32TG110F.xlsx
@@ -192,10 +192,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>A06</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DAC0P1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -216,10 +212,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>A07</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DAC0N1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -317,6 +309,14 @@
   </si>
   <si>
     <t>SWDIO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -771,8 +771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B6:P26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O29" sqref="O29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -862,7 +862,7 @@
         <v>1</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.15">
@@ -875,10 +875,10 @@
         <v>0</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="N13" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.15">
@@ -889,7 +889,7 @@
         <v>26</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>3</v>
@@ -918,7 +918,7 @@
         <v>33</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>4</v>
@@ -929,11 +929,11 @@
         <v>16</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="M15" s="4"/>
       <c r="N15" s="8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.15">
@@ -958,19 +958,19 @@
         <v>15</v>
       </c>
       <c r="K16" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="L16" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="M16" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="L16" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="M16" s="6" t="s">
-        <v>70</v>
-      </c>
       <c r="N16" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="O16" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.15">
@@ -989,19 +989,19 @@
         <v>14</v>
       </c>
       <c r="K17" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="L17" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="M17" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="L17" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="M17" s="6" t="s">
-        <v>67</v>
-      </c>
       <c r="N17" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="O17" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.15">
@@ -1028,13 +1028,13 @@
         <v>12</v>
       </c>
       <c r="L19" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M19" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="N19" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.15">
@@ -1056,13 +1056,13 @@
         <v>13</v>
       </c>
       <c r="L20" s="10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="M20" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="N20" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.15">
@@ -1102,22 +1102,22 @@
         <v>11</v>
       </c>
       <c r="K23" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="L23" s="6" t="s">
         <v>19</v>
       </c>
       <c r="M23" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="N23" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="O23" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="N23" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="O23" s="11" t="s">
-        <v>54</v>
-      </c>
       <c r="P23" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.15">
@@ -1131,22 +1131,22 @@
         <v>23</v>
       </c>
       <c r="K24" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L24" s="6" t="s">
         <v>18</v>
       </c>
       <c r="M24" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="N24" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="N24" s="10" t="s">
+      <c r="O24" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="O24" s="11" t="s">
+      <c r="P24" s="8" t="s">
         <v>48</v>
-      </c>
-      <c r="P24" s="8" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.15">
